--- a/Lab Assessment - 1/Lab 1 - Index Match.xlsx
+++ b/Lab Assessment - 1/Lab 1 - Index Match.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Arun - July 2021\ANMYVILLE INDIA PVT LTD\Consulting Projects\Deep Spheer AI Training\Final Assessment - LVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithy\Downloads\Final Assessment - LVA\Lab Assessment - 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB6C974-D976-44C9-9DC0-6C08EC4DE305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138470F5-E25C-4380-A0EF-F022F782C904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE1828CC-27EB-43FD-BA67-A9572E125FD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE1828CC-27EB-43FD-BA67-A9572E125FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index Match" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -87,9 +85,6 @@
     <t>Belt</t>
   </si>
   <si>
-    <t>Use Index Match Formula to get the  price for product &amp; Size in cell b8 and b10</t>
-  </si>
-  <si>
     <t>Size:</t>
   </si>
   <si>
@@ -100,6 +95,9 @@
   </si>
   <si>
     <t>Jeans</t>
+  </si>
+  <si>
+    <t>Use Index Match Formula to get the  price for product &amp; Size</t>
   </si>
 </sst>
 </file>
@@ -290,14 +288,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,7 +692,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -705,14 +703,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -733,7 +731,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4">
@@ -753,7 +751,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
@@ -773,7 +771,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
@@ -793,7 +791,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
@@ -813,8 +811,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>16</v>
+      <c r="A7" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="4">
         <v>600</v>
@@ -833,8 +831,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
+      <c r="A8" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="4">
         <v>300</v>
@@ -853,8 +851,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>18</v>
+      <c r="A9" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="4">
         <v>1000</v>
@@ -887,7 +885,7 @@
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
@@ -901,7 +899,7 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
